--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,63 +247,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="16.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.77734375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
+    <col min="4" max="4" width="16.24609375" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
+    <col min="7" max="7" width="15.77734375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.77734375" customWidth="true"/>
+    <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.77734375" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29203086007442575</v>
+        <v>0.29203545136242443</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29179883719022925</v>
+        <v>0.29180275413227935</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-8.787152163754952e-05</v>
+        <v>-8.6191079889550801e-05</v>
       </c>
       <c r="E3" s="0">
-        <v>6.8620198176922874e-05</v>
+        <v>6.9236795401856073e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>6.4541779607766086e-06</v>
+        <v>9.0859524142526414e-06</v>
       </c>
       <c r="G3" s="0">
-        <v>-1.8746735651461294e-05</v>
+        <v>-1.8980675029244657e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>-5.9640021856100026e-07</v>
+        <v>-4.912464671867434e-07</v>
       </c>
       <c r="I3" s="0">
-        <v>-2.932830212245452e-05</v>
+        <v>-2.995378661066367e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-1.8106718353505524e-05</v>
+        <v>-1.8106703780829125e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29147403379907294</v>
+        <v>0.29146894697198233</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00038141854733247769</v>
+        <v>-0.00042859773643026997</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.3727816656898155e-06</v>
+        <v>1.3704042219550997e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>7.179279215201551e-07</v>
+        <v>6.7716465374704341e-07</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>4.4093754785318764e-06</v>
+        <v>4.37048142292962e-06</v>
       </c>
       <c r="I4" s="0">
-        <v>4.6017385684092258e-05</v>
+        <v>4.4620237966113282e-05</v>
       </c>
       <c r="J4" s="0">
-        <v>-5.2564783941438356e-05</v>
+        <v>-5.3205155084943365e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-9.6388594166274544e-06</v>
+        <v>-9.6388070315311936e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29187260976591323</v>
+        <v>0.29186688981607922</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.00016432659595004583</v>
+        <v>-0.00012108143356040047</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.00032178635103012669</v>
+        <v>-0.00032055173664381824</v>
       </c>
       <c r="E5" s="0">
-        <v>-8.5070055940812296e-05</v>
+        <v>-8.5401707792857938e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0002811903009592765</v>
+        <v>-0.00028289237102756157</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00011706181785355323</v>
+        <v>0.00011730817428268485</v>
       </c>
       <c r="H5" s="0">
-        <v>-7.0415108987933435e-06</v>
+        <v>-7.1035911075370215e-06</v>
       </c>
       <c r="I5" s="0">
-        <v>-5.7790317444317558e-05</v>
+        <v>-5.7740492477388791e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>4.3343739311307861e-05</v>
+        <v>4.3343730157352489e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29464161745051243</v>
+        <v>0.2946492589160517</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0061656602611331627</v>
+        <v>0.0061696044890866414</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-2.5405630260468712e-06</v>
+        <v>-2.5410112791505396e-06</v>
       </c>
       <c r="F6" s="0">
-        <v>-3.5739270292840503e-05</v>
+        <v>-3.5737853428017925e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-6.6966469476191071e-06</v>
+        <v>-6.6964139708055432e-06</v>
       </c>
       <c r="I6" s="0">
-        <v>9.6968332325137783e-05</v>
+        <v>9.8791753207868414e-05</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.00070392198565466524</v>
+        <v>-0.00070392203468100378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29412740917990393</v>
+        <v>0.29413473456135608</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.00084921172498553536</v>
+        <v>-0.00084893479083616996</v>
       </c>
       <c r="E7" s="0">
-        <v>-3.0713503655784215e-05</v>
+        <v>-3.0609959573757778e-05</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00039444241380293701</v>
+        <v>-0.00039400329558057843</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.00012430940616481919</v>
+        <v>-0.00012458325595656258</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>3.1997310683717738e-05</v>
+        <v>3.2007397200183999e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00029612116409999389</v>
+        <v>-0.0002961211617548698</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.2898636625708918</v>
+        <v>0.28989829389486577</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0048175535201256097</v>
+        <v>0.0047749818360811463</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>2.8677741002238179e-07</v>
+        <v>2.8687095712076604e-07</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00019058800676888322</v>
+        <v>-0.00019058506467870741</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5.9545038617264667e-07</v>
+        <v>5.9595605576954524e-07</v>
       </c>
       <c r="I8" s="0">
-        <v>-4.5239509987578675e-05</v>
+        <v>-4.6095398171252634e-05</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>6.0686248773422768e-06</v>
+        <v>6.0685484487565944e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.28934484897160334</v>
+        <v>0.28937679039579817</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.00020167904082314439</v>
+        <v>0.00020361687801223193</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.00077842570803469794</v>
+        <v>-0.00077868725138806815</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0039737827048895212</v>
+        <v>-0.003974614141663088</v>
       </c>
       <c r="G9" s="0">
-        <v>-3.9373324208362668e-05</v>
+        <v>-3.8622888498935738e-05</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00013099944271526934</v>
+        <v>-0.00013103714949202737</v>
       </c>
       <c r="I9" s="0">
-        <v>-3.6709165187768199e-05</v>
+        <v>-3.6671010661443687e-05</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.5145617695111468e-05</v>
+        <v>-1.514555199111367e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.3075881166557326</v>
+        <v>0.30819344760877082</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0056644617923543297</v>
+        <v>0.0058690498367873472</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>2.8555818251368639e-06</v>
+        <v>2.8567928915263832e-06</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00011288142842599536</v>
+        <v>-0.00011256038008605045</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>4.5637779964716386e-06</v>
+        <v>4.5636768738322796e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>-8.6665142836505435e-06</v>
+        <v>-8.6574227170666323e-06</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0020426535466305704</v>
+        <v>-0.0020534931021065901</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00084733312725765453</v>
+        <v>0.00084733151182686539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.31623623221184533</v>
+        <v>0.31681368192718667</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.003930172737324919</v>
+        <v>0.0039328461998493483</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.00044562020003690699</v>
+        <v>-0.00044134853834323532</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0028215065989407747</v>
+        <v>-0.0028045743528352027</v>
       </c>
       <c r="G11" s="0">
-        <v>4.0203965065452243e-05</v>
+        <v>4.0335707725706638e-05</v>
       </c>
       <c r="H11" s="0">
-        <v>-3.3715300969135226e-05</v>
+        <v>-3.2954301324221579e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.00029513989949441697</v>
+        <v>-0.00029629818939228253</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0017683450154256652</v>
+        <v>0.0017683458346717251</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.30737045849491479</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.018167860952093207</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-1.3393696230830189e-05</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1.3010366431626997e-06</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-1.3237848550835875e-06</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.0015883786338078108</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.003675730042362213</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -256,7 +397,7 @@
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
+    <col min="7" max="7" width="16.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.77734375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29203545136242443</v>
+        <v>0.2920434511436254</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29180275413227935</v>
+        <v>0.29180749316335614</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-8.6191079889550801e-05</v>
+        <v>-8.7561596149170106e-05</v>
       </c>
       <c r="E3" s="0">
-        <v>6.9236795401856073e-05</v>
+        <v>6.897728499026747e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>9.0859524142526414e-06</v>
+        <v>7.9837215702467055e-06</v>
       </c>
       <c r="G3" s="0">
-        <v>-1.8980675029244657e-05</v>
+        <v>-1.9253340612663424e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>-4.912464671867434e-07</v>
+        <v>-5.3618810271130638e-07</v>
       </c>
       <c r="I3" s="0">
-        <v>-2.995378661066367e-05</v>
+        <v>-3.0866266305643138e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-1.8106703780829125e-05</v>
+        <v>-1.8106677209139832e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29146894697198233</v>
+        <v>0.2914494870458289</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00042859773643026997</v>
+        <v>-0.00045915397201177897</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.3704042219550997e-06</v>
+        <v>1.3708616648535828e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>6.7716465374704341e-07</v>
+        <v>6.5951148618607678e-07</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>4.37048142292962e-06</v>
+        <v>4.3384570751297403e-06</v>
       </c>
       <c r="I4" s="0">
-        <v>4.4620237966113282e-05</v>
+        <v>4.3237459721186831e-05</v>
       </c>
       <c r="J4" s="0">
-        <v>-5.3205155084943365e-05</v>
+        <v>-5.6105592821721684e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-9.6388070315311936e-06</v>
+        <v>-9.6386252917413096e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29186688981607922</v>
+        <v>0.29186342515797098</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.00012108143356040047</v>
+        <v>-0.00012582841885722628</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.00032055173664381824</v>
+        <v>-0.00032079130244107534</v>
       </c>
       <c r="E5" s="0">
-        <v>-8.5401707792857938e-05</v>
+        <v>-8.5757939265172407e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00028289237102756157</v>
+        <v>-0.00028456942710944756</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00011730817428268485</v>
+        <v>0.00011808133470142263</v>
       </c>
       <c r="H5" s="0">
-        <v>-7.1035911075370215e-06</v>
+        <v>-7.1682005072446677e-06</v>
       </c>
       <c r="I5" s="0">
-        <v>-5.7740492477388791e-05</v>
+        <v>-5.7672203143975233e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>4.3343730157352489e-05</v>
+        <v>4.3343613331803255e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.2946492589160517</v>
+        <v>0.29467076157429234</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0061696044890866414</v>
+        <v>0.0062046732808613446</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-2.5410112791505396e-06</v>
+        <v>-2.5413918832232523e-06</v>
       </c>
       <c r="F6" s="0">
-        <v>-3.5737853428017925e-05</v>
+        <v>-3.5561548790300808e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-6.6964139708055432e-06</v>
+        <v>-6.5208731453444341e-06</v>
       </c>
       <c r="I6" s="0">
-        <v>9.8791753207868414e-05</v>
+        <v>9.9509607688998188e-05</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.00070392203468100378</v>
+        <v>-0.00070392219386078425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29413473456135608</v>
+        <v>0.29415316132433894</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.00084893479083616996</v>
+        <v>-0.00084172235417611068</v>
       </c>
       <c r="E7" s="0">
-        <v>-3.0609959573757778e-05</v>
+        <v>-2.8188215359455446e-05</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00039400329558057843</v>
+        <v>-0.0003851497394426904</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.00012458325595656258</v>
+        <v>-0.00012519043259590681</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>3.2007397200183999e-05</v>
+        <v>3.1969263499021795e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0002961211617548698</v>
+        <v>-0.00029612113357635472</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.28989829389486577</v>
+        <v>0.28970916280992237</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0047749818360811463</v>
+        <v>0.0049306597689651325</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>2.8687095712076604e-07</v>
+        <v>2.8686955347095264e-07</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00019058506467870741</v>
+        <v>-0.00019071539227823653</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5.9595605576954524e-07</v>
+        <v>5.936137572382826e-07</v>
       </c>
       <c r="I8" s="0">
-        <v>-4.6095398171252634e-05</v>
+        <v>-4.8025239856903282e-05</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>6.0685484487565944e-06</v>
+        <v>6.0688012068488284e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.28937679039579817</v>
+        <v>0.28919828646626611</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.00020361687801223193</v>
+        <v>0.00018569567540962234</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.00077868725138806815</v>
+        <v>-0.00078094567558062401</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.003974614141663088</v>
+        <v>-0.0039833674901891261</v>
       </c>
       <c r="G9" s="0">
-        <v>-3.8622888498935738e-05</v>
+        <v>-4.0478916029178754e-05</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00013103714949202737</v>
+        <v>-0.00013145895772187933</v>
       </c>
       <c r="I9" s="0">
-        <v>-3.6671010661443687e-05</v>
+        <v>-3.6741927628286087e-05</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.514555199111367e-05</v>
+        <v>-1.5145847809316937e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.30819344760877082</v>
+        <v>0.30795816859464314</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0058690498367873472</v>
+        <v>0.0057767480001387449</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>2.8567928915263832e-06</v>
+        <v>2.8633625255915503e-06</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00011256038008605045</v>
+        <v>-0.00011384763408185965</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>4.5636768738322796e-06</v>
+        <v>4.562978371236427e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>-8.6574227170666323e-06</v>
+        <v>-9.5750300030270918e-06</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0020534931021065901</v>
+        <v>-0.0020031919851187939</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00084733151182686539</v>
+        <v>0.00084733196276476352</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.31681368192718667</v>
+        <v>0.31662284833840942</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0039328461998493483</v>
+        <v>0.0038867949890777687</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.00044134853834323532</v>
+        <v>-0.00045895235472935759</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0028045743528352027</v>
+        <v>-0.0028755306417973699</v>
       </c>
       <c r="G11" s="0">
-        <v>4.0335707725706638e-05</v>
+        <v>4.1793460225821026e-05</v>
       </c>
       <c r="H11" s="0">
-        <v>-3.2954301324221579e-05</v>
+        <v>-3.6197621417096802e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.00029629818939228253</v>
+        <v>-0.00029564985766313191</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0017683458346717251</v>
+        <v>0.0017683454442886659</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.30737045849491479</v>
+        <v>0.2877898274768092</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.018167860952093207</v>
+        <v>-0.026429354973260169</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-1.3393696230830189e-05</v>
+        <v>-1.0796664948428103e-05</v>
       </c>
       <c r="F12" s="0">
-        <v>1.3010366431626997e-06</v>
+        <v>0.00051247064193698643</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-1.3237848550835875e-06</v>
+        <v>4.688097858477294e-05</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.0015883786338078108</v>
+        <v>-0.0053919318348141648</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.003675730042362213</v>
+        <v>-0.0037047818915555419</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.24298164394058619</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.045787517572150334</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0034886093793231477</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.0013474189041861931</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.00076948557120933535</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00011611068826258267</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.00080903449724505246</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>2.8780762254210224e-05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>-0.037999851201222457</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.22388359851799322</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>3.9219064233920942e-05</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-1.8597432674966369e-05</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-5.3761841392390603e-06</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.017746564151652589</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>1.1308489794581433e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="14.64453125" customWidth="true"/>
     <col min="3" max="3" width="16.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.2920434511436254</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.29180749316335614</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.2914494870458289</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.29186342515797098</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.29467076157429234</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.29415316132433894</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.28970916280992237</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.28919828646626611</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.30795816859464314</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.31662284833840942</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.2877898274768092</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.24298164394058619</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.037999851201222457</v>
+        <v>0.0018861989625321707</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.22388359851799322</v>
+        <v>-0.20946343667957792</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>3.9219064233920942e-05</v>
+        <v>3.5190731813406857e-05</v>
       </c>
       <c r="F14" s="0">
-        <v>-1.8597432674966369e-05</v>
+        <v>-0.00072437356396273464</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-5.3761841392390603e-06</v>
+        <v>-0.0031565520578700629</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.017746564151652589</v>
+        <v>-0.018876656062756906</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>1.1308489794581433e-05</v>
+        <v>-0.00080399032202074783</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.21323278505749382</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.14613958741077474</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0045975775753301189</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.012783517012456757</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0098578011083996046</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.0063662712668217381</v>
       </c>
     </row>
   </sheetData>
